--- a/File/Normalisasi-Kata.xlsx
+++ b/File/Normalisasi-Kata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mampe Munthe\Skripsi\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F2A92E-F6AD-423B-9645-E8FE0BAEDFF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22140F27-BC93-4344-8541-F826E1B161C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="3173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="3174">
   <si>
     <t>BAKU</t>
   </si>
@@ -9550,6 +9549,9 @@
   </si>
   <si>
     <t>ajig</t>
+  </si>
+  <si>
+    <t>pengenin</t>
   </si>
 </sst>
 </file>
@@ -9937,8 +9939,8 @@
   </sheetPr>
   <dimension ref="A1:B2045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2027" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2027" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1517" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1526" sqref="D1526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -22085,18 +22087,18 @@
       </c>
     </row>
     <row r="1518" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1518" s="5" t="s">
-        <v>2808</v>
+      <c r="A1518" s="11" t="s">
+        <v>3173</v>
       </c>
       <c r="B1518" s="4" t="s">
         <v>2713</v>
       </c>
     </row>
     <row r="1519" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1519" s="9" t="s">
+      <c r="A1519" s="5" t="s">
         <v>2808</v>
       </c>
-      <c r="B1519" s="9" t="s">
+      <c r="B1519" s="4" t="s">
         <v>2713</v>
       </c>
     </row>
@@ -26284,11 +26286,11 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2043" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2043" s="3" t="s">
+    <row r="2043" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2043" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="B2043" s="4" t="s">
+      <c r="B2043" s="13" t="s">
         <v>828</v>
       </c>
     </row>
@@ -26310,15 +26312,15 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2045">
-    <sortCondition ref="A2027:A2045"/>
+    <sortCondition ref="A2026:A2045"/>
   </sortState>
-  <conditionalFormatting sqref="A3832:A1048576 A1:A2015">
+  <conditionalFormatting sqref="A3831:A1048576 A1:A2014">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3832:A1048576">
+  <conditionalFormatting sqref="A3831:A1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2015 A2044:A1048576">
+  <conditionalFormatting sqref="A2043:A1048576 A1:A2014">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
